--- a/data/input/employee_absence_data_25.xlsx
+++ b/data/input/employee_absence_data_25.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63341</v>
+        <v>4198</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Srta. Hadassa Cardoso</t>
+          <t>Cauã Viana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45099</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>9359.48</v>
+        <v>4406.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34708</v>
+        <v>16809</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Renan Vieira</t>
+          <t>Felipe Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45080</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>5852.86</v>
+        <v>9596.950000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48641</v>
+        <v>92411</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Mendes</t>
+          <t>Dra. Maria Isis Almeida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,22 +540,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45101</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>11182.88</v>
+        <v>3105.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68966</v>
+        <v>339</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lunna Machado</t>
+          <t>Alexandre Moura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,60 +565,60 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45101</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>5890.53</v>
+        <v>2138.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>47385</v>
+        <v>51864</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Otávio Vargas</t>
+          <t>Ana Júlia Mendes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45105</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>7758.72</v>
+        <v>8324.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74439</v>
+        <v>54210</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rael Vargas</t>
+          <t>Fernando Siqueira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,27 +627,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45083</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>7194.89</v>
+        <v>9701.370000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35484</v>
+        <v>5652</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Helena Aragão</t>
+          <t>Arthur Miguel Teixeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45102</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>7687.05</v>
+        <v>7767.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>58482</v>
+        <v>61315</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Thomas Mendonça</t>
+          <t>Lorena Campos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,75 +681,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45099</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>4752.33</v>
+        <v>7960.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6870</v>
+        <v>47139</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bárbara Fonseca</t>
+          <t>Aylla Pastor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45100</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>7539.4</v>
+        <v>8247.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>32140</v>
+        <v>70344</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Evelyn Vargas</t>
+          <t>Sra. Ana Júlia Porto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45080</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>5846.96</v>
+        <v>3189.53</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_25.xlsx
+++ b/data/input/employee_absence_data_25.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4198</v>
+        <v>88030</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cauã Viana</t>
+          <t>Srta. Maria Clara Aparecida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>4406.91</v>
+        <v>4549.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16809</v>
+        <v>52654</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Felipe Costa</t>
+          <t>Dra. Sophia Ramos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,80 +511,80 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>9596.950000000001</v>
+        <v>8637.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92411</v>
+        <v>31885</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Maria Isis Almeida</t>
+          <t>Bruna Duarte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>3105.35</v>
+        <v>2897.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>339</v>
+        <v>51460</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexandre Moura</t>
+          <t>Maria Camargo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45086</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>2138.75</v>
+        <v>5883.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>51864</v>
+        <v>91193</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Júlia Mendes</t>
+          <t>Sr. Davi Miguel da Conceição</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,155 +601,155 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45080</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>8324.74</v>
+        <v>4715.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>54210</v>
+        <v>60470</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fernando Siqueira</t>
+          <t>Sr. Apollo da Rosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45095</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>9701.370000000001</v>
+        <v>8345.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5652</v>
+        <v>52489</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arthur Miguel Teixeira</t>
+          <t>Brenda Ribeiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45101</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>7767.19</v>
+        <v>6528.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>61315</v>
+        <v>43754</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lorena Campos</t>
+          <t>Sr. Gael Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45091</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>7960.95</v>
+        <v>5693.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47139</v>
+        <v>87852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aylla Pastor</t>
+          <t>Luna Cassiano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>8247.07</v>
+        <v>3906.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>70344</v>
+        <v>90390</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Ana Júlia Porto</t>
+          <t>Juliana Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>3189.53</v>
+        <v>4563.78</v>
       </c>
     </row>
   </sheetData>
